--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Ccl4</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>63.6596653689508</v>
+        <v>64.472663</v>
       </c>
       <c r="H2">
-        <v>63.6596653689508</v>
+        <v>193.417989</v>
       </c>
       <c r="I2">
-        <v>0.4675547861736415</v>
+        <v>0.4634539850319053</v>
       </c>
       <c r="J2">
-        <v>0.4675547861736415</v>
+        <v>0.4634539850319053</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.188809412900946</v>
+        <v>0.320495</v>
       </c>
       <c r="N2">
-        <v>0.188809412900946</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O2">
-        <v>0.001765855969444405</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P2">
-        <v>0.001765855969444405</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q2">
-        <v>12.01954404378228</v>
+        <v>20.663166128185</v>
       </c>
       <c r="R2">
-        <v>12.01954404378228</v>
+        <v>123.97899676911</v>
       </c>
       <c r="S2">
-        <v>0.0008256344102070273</v>
+        <v>0.001362608773929304</v>
       </c>
       <c r="T2">
-        <v>0.0008256344102070273</v>
+        <v>0.0009092969956958849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>63.6596653689508</v>
+        <v>64.472663</v>
       </c>
       <c r="H3">
-        <v>63.6596653689508</v>
+        <v>193.417989</v>
       </c>
       <c r="I3">
-        <v>0.4675547861736415</v>
+        <v>0.4634539850319053</v>
       </c>
       <c r="J3">
-        <v>0.4675547861736415</v>
+        <v>0.4634539850319053</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>47.4832128187357</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N3">
-        <v>47.4832128187357</v>
+        <v>0.034127</v>
       </c>
       <c r="O3">
-        <v>0.4440907554135159</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P3">
-        <v>0.4440907554135159</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q3">
-        <v>3022.76543868339</v>
+        <v>0.7334195234003332</v>
       </c>
       <c r="R3">
-        <v>3022.76543868339</v>
+        <v>6.600775710603</v>
       </c>
       <c r="S3">
-        <v>0.2076367581890574</v>
+        <v>4.836450867968335E-05</v>
       </c>
       <c r="T3">
-        <v>0.2076367581890574</v>
+        <v>4.841195427715481E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>63.6596653689508</v>
+        <v>64.472663</v>
       </c>
       <c r="H4">
-        <v>63.6596653689508</v>
+        <v>193.417989</v>
       </c>
       <c r="I4">
-        <v>0.4675547861736415</v>
+        <v>0.4634539850319053</v>
       </c>
       <c r="J4">
-        <v>0.4675547861736415</v>
+        <v>0.4634539850319053</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.2502954250811</v>
+        <v>48.78764200000001</v>
       </c>
       <c r="N4">
-        <v>59.2502954250811</v>
+        <v>146.362926</v>
       </c>
       <c r="O4">
-        <v>0.5541433886170396</v>
+        <v>0.4475619218406647</v>
       </c>
       <c r="P4">
-        <v>0.5541433886170396</v>
+        <v>0.4480009802197716</v>
       </c>
       <c r="Q4">
-        <v>3771.853979772139</v>
+        <v>3145.469201230646</v>
       </c>
       <c r="R4">
-        <v>3771.853979772139</v>
+        <v>28309.22281107582</v>
       </c>
       <c r="S4">
-        <v>0.2590923935743771</v>
+        <v>0.2074243562255942</v>
       </c>
       <c r="T4">
-        <v>0.2590923935743771</v>
+        <v>0.2076278395810529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.4947859412936</v>
+        <v>64.472663</v>
       </c>
       <c r="H5">
-        <v>72.4947859412936</v>
+        <v>193.417989</v>
       </c>
       <c r="I5">
-        <v>0.5324452138263586</v>
+        <v>0.4634539850319053</v>
       </c>
       <c r="J5">
-        <v>0.5324452138263586</v>
+        <v>0.4634539850319053</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.188809412900946</v>
+        <v>59.61647133333333</v>
       </c>
       <c r="N5">
-        <v>0.188809412900946</v>
+        <v>178.849414</v>
       </c>
       <c r="O5">
-        <v>0.001765855969444405</v>
+        <v>0.5469020717030258</v>
       </c>
       <c r="P5">
-        <v>0.001765855969444405</v>
+        <v>0.5474385827988417</v>
       </c>
       <c r="Q5">
-        <v>13.6876979719554</v>
+        <v>3843.63266552316</v>
       </c>
       <c r="R5">
-        <v>13.6876979719554</v>
+        <v>34592.69398970844</v>
       </c>
       <c r="S5">
-        <v>0.0009402215592373781</v>
+        <v>0.2534639445529722</v>
       </c>
       <c r="T5">
-        <v>0.0009402215592373781</v>
+        <v>0.2537125927583418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>72.4947859412936</v>
+        <v>64.472663</v>
       </c>
       <c r="H6">
-        <v>72.4947859412936</v>
+        <v>193.417989</v>
       </c>
       <c r="I6">
-        <v>0.5324452138263586</v>
+        <v>0.4634539850319053</v>
       </c>
       <c r="J6">
-        <v>0.5324452138263586</v>
+        <v>0.4634539850319053</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>47.4832128187357</v>
+        <v>0.271596</v>
       </c>
       <c r="N6">
-        <v>47.4832128187357</v>
+        <v>0.814788</v>
       </c>
       <c r="O6">
-        <v>0.4440907554135159</v>
+        <v>0.002491533157602434</v>
       </c>
       <c r="P6">
-        <v>0.4440907554135159</v>
+        <v>0.00249397735237479</v>
       </c>
       <c r="Q6">
-        <v>3442.285349099133</v>
+        <v>17.510517380148</v>
       </c>
       <c r="R6">
-        <v>3442.285349099133</v>
+        <v>157.594656421332</v>
       </c>
       <c r="S6">
-        <v>0.2364539972244586</v>
+        <v>0.001154710970729974</v>
       </c>
       <c r="T6">
-        <v>0.2364539972244586</v>
+        <v>0.001155843742537416</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>74.50600166666666</v>
+      </c>
+      <c r="H7">
+        <v>223.518005</v>
+      </c>
+      <c r="I7">
+        <v>0.5355774335117884</v>
+      </c>
+      <c r="J7">
+        <v>0.5355774335117883</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.320495</v>
+      </c>
+      <c r="N7">
+        <v>0.6409900000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.00294011664142989</v>
+      </c>
+      <c r="P7">
+        <v>0.001962000597822644</v>
+      </c>
+      <c r="Q7">
+        <v>23.87880100415833</v>
+      </c>
+      <c r="R7">
+        <v>143.27280602495</v>
+      </c>
+      <c r="S7">
+        <v>0.001574660125042319</v>
+      </c>
+      <c r="T7">
+        <v>0.001050803244730446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>74.50600166666666</v>
+      </c>
+      <c r="H8">
+        <v>223.518005</v>
+      </c>
+      <c r="I8">
+        <v>0.5355774335117884</v>
+      </c>
+      <c r="J8">
+        <v>0.5355774335117883</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.034127</v>
+      </c>
+      <c r="O8">
+        <v>0.0001043566572771055</v>
+      </c>
+      <c r="P8">
+        <v>0.0001044590311890878</v>
+      </c>
+      <c r="Q8">
+        <v>0.847555439626111</v>
+      </c>
+      <c r="R8">
+        <v>7.627998956634999</v>
+      </c>
+      <c r="S8">
+        <v>5.589107067434149E-05</v>
+      </c>
+      <c r="T8">
+        <v>5.594589983137948E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>74.50600166666666</v>
+      </c>
+      <c r="H9">
+        <v>223.518005</v>
+      </c>
+      <c r="I9">
+        <v>0.5355774335117884</v>
+      </c>
+      <c r="J9">
+        <v>0.5355774335117883</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N9">
+        <v>146.362926</v>
+      </c>
+      <c r="O9">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P9">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q9">
+        <v>3634.972136164737</v>
+      </c>
+      <c r="R9">
+        <v>32714.74922548263</v>
+      </c>
+      <c r="S9">
+        <v>0.2397040654370269</v>
+      </c>
+      <c r="T9">
+        <v>0.2399392151968708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>74.50600166666666</v>
+      </c>
+      <c r="H10">
+        <v>223.518005</v>
+      </c>
+      <c r="I10">
+        <v>0.5355774335117884</v>
+      </c>
+      <c r="J10">
+        <v>0.5355774335117883</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N10">
+        <v>178.849414</v>
+      </c>
+      <c r="O10">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P10">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q10">
+        <v>4441.784912522118</v>
+      </c>
+      <c r="R10">
+        <v>39976.06421269906</v>
+      </c>
+      <c r="S10">
+        <v>0.2929084079449867</v>
+      </c>
+      <c r="T10">
+        <v>0.2931957511807343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>74.50600166666666</v>
+      </c>
+      <c r="H11">
+        <v>223.518005</v>
+      </c>
+      <c r="I11">
+        <v>0.5355774335117884</v>
+      </c>
+      <c r="J11">
+        <v>0.5355774335117883</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.271596</v>
+      </c>
+      <c r="N11">
+        <v>0.814788</v>
+      </c>
+      <c r="O11">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P11">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q11">
+        <v>20.23553202866</v>
+      </c>
+      <c r="R11">
+        <v>182.11978825794</v>
+      </c>
+      <c r="S11">
+        <v>0.001334408934058234</v>
+      </c>
+      <c r="T11">
+        <v>0.001335717989621415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1347426666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.404228</v>
+      </c>
+      <c r="I12">
+        <v>0.000968581456306409</v>
+      </c>
+      <c r="J12">
+        <v>0.0009685814563064089</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.320495</v>
+      </c>
+      <c r="N12">
+        <v>0.6409900000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.00294011664142989</v>
+      </c>
+      <c r="P12">
+        <v>0.001962000597822644</v>
+      </c>
+      <c r="Q12">
+        <v>0.04318435095333333</v>
+      </c>
+      <c r="R12">
+        <v>0.25910610572</v>
+      </c>
+      <c r="S12">
+        <v>2.847742458266871E-06</v>
+      </c>
+      <c r="T12">
+        <v>1.900357396313102E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1347426666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.404228</v>
+      </c>
+      <c r="I13">
+        <v>0.000968581456306409</v>
+      </c>
+      <c r="J13">
+        <v>0.0009685814563064089</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.034127</v>
+      </c>
+      <c r="O13">
+        <v>0.0001043566572771055</v>
+      </c>
+      <c r="P13">
+        <v>0.0001044590311890878</v>
+      </c>
+      <c r="Q13">
+        <v>0.001532787661777777</v>
+      </c>
+      <c r="R13">
+        <v>0.013795088956</v>
+      </c>
+      <c r="S13">
+        <v>1.010779230807277E-07</v>
+      </c>
+      <c r="T13">
+        <v>1.011770805534832E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1347426666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.404228</v>
+      </c>
+      <c r="I14">
+        <v>0.000968581456306409</v>
+      </c>
+      <c r="J14">
+        <v>0.0009685814563064089</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N14">
+        <v>146.362926</v>
+      </c>
+      <c r="O14">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P14">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q14">
+        <v>6.573776983458666</v>
+      </c>
+      <c r="R14">
+        <v>59.163992851128</v>
+      </c>
+      <c r="S14">
+        <v>0.0004335001780437262</v>
+      </c>
+      <c r="T14">
+        <v>0.0004339254418479651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>72.4947859412936</v>
-      </c>
-      <c r="H7">
-        <v>72.4947859412936</v>
-      </c>
-      <c r="I7">
-        <v>0.5324452138263586</v>
-      </c>
-      <c r="J7">
-        <v>0.5324452138263586</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>59.2502954250811</v>
-      </c>
-      <c r="N7">
-        <v>59.2502954250811</v>
-      </c>
-      <c r="O7">
-        <v>0.5541433886170396</v>
-      </c>
-      <c r="P7">
-        <v>0.5541433886170396</v>
-      </c>
-      <c r="Q7">
-        <v>4295.337483799662</v>
-      </c>
-      <c r="R7">
-        <v>4295.337483799662</v>
-      </c>
-      <c r="S7">
-        <v>0.2950509950426626</v>
-      </c>
-      <c r="T7">
-        <v>0.2950509950426626</v>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1347426666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.404228</v>
+      </c>
+      <c r="I15">
+        <v>0.000968581456306409</v>
+      </c>
+      <c r="J15">
+        <v>0.0009685814563064089</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N15">
+        <v>178.849414</v>
+      </c>
+      <c r="O15">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P15">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q15">
+        <v>8.03288232471022</v>
+      </c>
+      <c r="R15">
+        <v>72.29594092239199</v>
+      </c>
+      <c r="S15">
+        <v>0.0005297192050671089</v>
+      </c>
+      <c r="T15">
+        <v>0.0005302388597656188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1347426666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.404228</v>
+      </c>
+      <c r="I16">
+        <v>0.000968581456306409</v>
+      </c>
+      <c r="J16">
+        <v>0.0009685814563064089</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.271596</v>
+      </c>
+      <c r="N16">
+        <v>0.814788</v>
+      </c>
+      <c r="O16">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P16">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q16">
+        <v>0.036595569296</v>
+      </c>
+      <c r="R16">
+        <v>0.329360123664</v>
+      </c>
+      <c r="S16">
+        <v>2.413252814226272E-06</v>
+      </c>
+      <c r="T16">
+        <v>2.415620215958376E-06</v>
       </c>
     </row>
   </sheetData>
